--- a/Data Files/TestData/TestDataFile.xlsx
+++ b/Data Files/TestData/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\kr_kat\Data Files\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB808500-1AC4-43D2-A0E6-75F13FFF07E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596EF74-5B74-4D80-88B0-4E968F5D8203}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>

--- a/Data Files/TestData/TestDataFile.xlsx
+++ b/Data Files/TestData/TestDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\kr_kat\Data Files\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596EF74-5B74-4D80-88B0-4E968F5D8203}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72B0D0-922C-4494-A6C8-9E96D7AD9CB3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DASHBRD" sheetId="2" r:id="rId3"/>
     <sheet name="ACC_PLANNER" sheetId="3" r:id="rId4"/>
     <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +89,18 @@
   </si>
   <si>
     <t>2018 Meijer  / Meals</t>
+  </si>
+  <si>
+    <t>scenario1</t>
+  </si>
+  <si>
+    <t>execute excel data rows multiple datasets with varied verification points</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>dashboard - 2 times run - different verification</t>
   </si>
 </sst>
 </file>
@@ -464,9 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CE09C2-5401-4C0F-8912-68D93743886E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +638,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -667,9 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -725,4 +734,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D8922-7AEE-4769-9566-CCAD0A1247A4}">
+  <dimension ref="D2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/TestData/TestDataFile.xlsx
+++ b/Data Files/TestData/TestDataFile.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\kr_kat\Data Files\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72B0D0-922C-4494-A6C8-9E96D7AD9CB3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48E3B0-02EC-48C1-880B-59A43071F358}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
-    <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
-    <sheet name="NAVIGATION" sheetId="5" r:id="rId2"/>
-    <sheet name="DASHBRD" sheetId="2" r:id="rId3"/>
-    <sheet name="ACC_PLANNER" sheetId="3" r:id="rId4"/>
-    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="TESTS" sheetId="6" r:id="rId1"/>
+    <sheet name="LOGIN" sheetId="1" r:id="rId2"/>
+    <sheet name="NAVIGATION" sheetId="5" r:id="rId3"/>
+    <sheet name="DASHBRD" sheetId="2" r:id="rId4"/>
+    <sheet name="ACC_PLANNER" sheetId="3" r:id="rId5"/>
+    <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId6"/>
+    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -91,16 +92,139 @@
     <t>2018 Meijer  / Meals</t>
   </si>
   <si>
-    <t>scenario1</t>
-  </si>
-  <si>
-    <t>execute excel data rows multiple datasets with varied verification points</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>dashboard - 2 times run - different verification</t>
+    <t>PRODUCT_SELECTION</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>L22 6-7z Mixed Pasta Salads 12 $13.68</t>
+  </si>
+  <si>
+    <t>TESTCASENAME</t>
+  </si>
+  <si>
+    <t>TESTCASEID</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>NAVIGATION</t>
+  </si>
+  <si>
+    <t>DASHBRD</t>
+  </si>
+  <si>
+    <t>ACC_PLANNER</t>
+  </si>
+  <si>
+    <t>CUST_SETTINGS</t>
+  </si>
+  <si>
+    <t>CUSTOMER PLAN</t>
+  </si>
+  <si>
+    <t>ADD_NEW</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>PPG_Group</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Row_No</t>
+  </si>
+  <si>
+    <t>List Price_Case</t>
+  </si>
+  <si>
+    <t>List Price_Unit</t>
+  </si>
+  <si>
+    <t>EDLP_Rate_Case</t>
+  </si>
+  <si>
+    <t>Spend_Rate EDLP %</t>
+  </si>
+  <si>
+    <t>EDLP_Rate_Unit</t>
+  </si>
+  <si>
+    <t>UnitCostNet_EDLP</t>
+  </si>
+  <si>
+    <t>Total_Allowances</t>
+  </si>
+  <si>
+    <t>Unit_Cost_Net_Allowances</t>
+  </si>
+  <si>
+    <t>Non_Promo_SRP</t>
+  </si>
+  <si>
+    <t>Retailer_Margin_(Base %)</t>
+  </si>
+  <si>
+    <t>Penny_Profit</t>
+  </si>
+  <si>
+    <t>Spend_Method</t>
+  </si>
+  <si>
+    <t>ADDNEW</t>
+  </si>
+  <si>
+    <t>DIALOG_BOX</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>DIALOG_MSG</t>
+  </si>
+  <si>
+    <t>DIALOG_ACTION</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ERROR_DIALOG</t>
+  </si>
+  <si>
+    <t>ERROR_MSG</t>
+  </si>
+  <si>
+    <t>ERROR_ACTION</t>
+  </si>
+  <si>
+    <t>DONK</t>
+  </si>
+  <si>
+    <t>Oct/23/2018</t>
+  </si>
+  <si>
+    <t>Oct/29/2018</t>
+  </si>
+  <si>
+    <t>$ BB Per Unit</t>
+  </si>
+  <si>
+    <t>Nov/23/2018</t>
+  </si>
+  <si>
+    <t>Nov/29/2018</t>
+  </si>
+  <si>
+    <t>BTN_APPLY_EDLP</t>
   </si>
 </sst>
 </file>
@@ -145,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +283,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,10 +601,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D8922-7AEE-4769-9566-CCAD0A1247A4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3722</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CE09C2-5401-4C0F-8912-68D93743886E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55FEBA-CA92-4A5F-BB4B-E06354776308}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -562,11 +761,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -625,23 +824,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,13 +856,37 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -665,8 +896,20 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>34</v>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +917,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -734,43 +1156,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D8922-7AEE-4769-9566-CCAD0A1247A4}">
-  <dimension ref="D2:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>